--- a/teaching/traditional_assets/database/data/nigeria/nigeria_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/nigeria/nigeria_bank_money_center.xlsx
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.09609999999999999</v>
+        <v>0.09320000000000001</v>
       </c>
       <c r="E2">
-        <v>0.162</v>
+        <v>0.0818</v>
       </c>
       <c r="F2">
-        <v>0.053</v>
+        <v>0.066</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -606,103 +606,97 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-5.964274205975369e-05</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>-5.231312855767776e-05</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>2060.26</v>
+        <v>2022.16</v>
       </c>
       <c r="L2">
-        <v>0.317534149878782</v>
+        <v>0.3066155175812346</v>
       </c>
       <c r="M2">
-        <v>621.026</v>
+        <v>692.0939999999999</v>
       </c>
       <c r="N2">
-        <v>0.0860998272529898</v>
+        <v>0.09563139931740613</v>
       </c>
       <c r="O2">
-        <v>0.3014308873637308</v>
+        <v>0.3422548166317205</v>
       </c>
       <c r="P2">
-        <v>616.976</v>
+        <v>683.75</v>
       </c>
       <c r="Q2">
-        <v>0.08553833014920573</v>
+        <v>0.09447845131337138</v>
       </c>
       <c r="R2">
-        <v>0.2994651160533137</v>
+        <v>0.3381285358230803</v>
       </c>
       <c r="S2">
-        <v>4.049999999999997</v>
+        <v>8.343999999999994</v>
       </c>
       <c r="T2">
-        <v>0.006521466089986567</v>
+        <v>0.01205616578094882</v>
       </c>
       <c r="U2">
-        <v>13646.82</v>
+        <v>11747.08</v>
       </c>
       <c r="V2">
-        <v>1.892012322435206</v>
+        <v>1.623175028671705</v>
       </c>
       <c r="W2">
-        <v>0.09384787764821781</v>
+        <v>0.1334905263422675</v>
       </c>
       <c r="X2">
-        <v>0.1189961597861168</v>
+        <v>0.1301044601700037</v>
       </c>
       <c r="Y2">
-        <v>-0.02514828213789896</v>
+        <v>0.003386066172263863</v>
       </c>
       <c r="Z2">
-        <v>0.7687543853007867</v>
+        <v>0.8478844991836262</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.08346890268705541</v>
+        <v>0.08359460476457124</v>
       </c>
       <c r="AC2">
-        <v>-0.0831850974303748</v>
+        <v>-0.08359460476457124</v>
       </c>
       <c r="AD2">
-        <v>11102.72</v>
+        <v>11559.86</v>
       </c>
       <c r="AE2">
-        <v>13.9099029986686</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>11116.62990299867</v>
+        <v>11559.86</v>
       </c>
       <c r="AG2">
-        <v>-2530.19009700133</v>
+        <v>-187.2199999999993</v>
       </c>
       <c r="AH2">
-        <v>0.6064887763832429</v>
+        <v>0.6149856146951422</v>
       </c>
       <c r="AI2">
-        <v>0.5103555048337253</v>
+        <v>0.4964944319794391</v>
       </c>
       <c r="AJ2">
-        <v>-0.5403306552488479</v>
+        <v>-0.02655648039399243</v>
       </c>
       <c r="AK2">
-        <v>-0.3110133636173717</v>
+        <v>-0.01622936438312459</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>4635.791231732777</v>
-      </c>
-      <c r="AP2">
-        <v>-1056.446804593457</v>
       </c>
     </row>
     <row r="3">
@@ -722,13 +716,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.122</v>
+        <v>0.103</v>
       </c>
       <c r="E3">
-        <v>0.167</v>
-      </c>
-      <c r="F3">
-        <v>0.06</v>
+        <v>0.133</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -743,85 +734,85 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>520</v>
+        <v>497.7</v>
       </c>
       <c r="L3">
-        <v>0.5426841995408056</v>
+        <v>0.5117737789203085</v>
       </c>
       <c r="M3">
-        <v>225.98</v>
+        <v>216.294</v>
       </c>
       <c r="N3">
-        <v>0.09914882414882416</v>
+        <v>0.1113998763906057</v>
       </c>
       <c r="O3">
-        <v>0.4345769230769231</v>
+        <v>0.4345871006630501</v>
       </c>
       <c r="P3">
-        <v>223.6</v>
+        <v>215.3</v>
       </c>
       <c r="Q3">
-        <v>0.09810459810459811</v>
+        <v>0.1108879274824887</v>
       </c>
       <c r="R3">
-        <v>0.43</v>
+        <v>0.4325899136025719</v>
       </c>
       <c r="S3">
-        <v>2.379999999999995</v>
+        <v>0.9939999999999998</v>
       </c>
       <c r="T3">
-        <v>0.0105319054783609</v>
+        <v>0.004595596734074915</v>
       </c>
       <c r="U3">
-        <v>1732.5</v>
+        <v>1548.6</v>
       </c>
       <c r="V3">
-        <v>0.7601351351351352</v>
+        <v>0.7975896168108776</v>
       </c>
       <c r="W3">
-        <v>0.3616636528028933</v>
+        <v>0.2890243902439024</v>
       </c>
       <c r="X3">
-        <v>0.0685150509632261</v>
+        <v>0.06427958992099442</v>
       </c>
       <c r="Y3">
-        <v>0.2931486018396672</v>
+        <v>0.224744800322908</v>
       </c>
       <c r="Z3">
-        <v>-28.09970674486819</v>
+        <v>2.070029799914856</v>
       </c>
       <c r="AA3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.0697138794855018</v>
+        <v>0.06727984095542</v>
       </c>
       <c r="AC3">
-        <v>-0.0697138794855018</v>
+        <v>-0.06727984095542</v>
       </c>
       <c r="AD3">
-        <v>504.3</v>
+        <v>392.2</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>504.3</v>
+        <v>392.2</v>
       </c>
       <c r="AG3">
-        <v>-1228.2</v>
+        <v>-1156.4</v>
       </c>
       <c r="AH3">
-        <v>0.1811747799532962</v>
+        <v>0.1680521038649413</v>
       </c>
       <c r="AI3">
-        <v>0.2228359330122399</v>
+        <v>0.165736984448952</v>
       </c>
       <c r="AJ3">
-        <v>-1.168601332064701</v>
+        <v>-1.472745797249108</v>
       </c>
       <c r="AK3">
-        <v>-2.314738032416133</v>
+        <v>-1.414037662020053</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -847,11 +838,11 @@
         </is>
       </c>
       <c r="D4">
+        <v>0.147</v>
+      </c>
+      <c r="E4">
         <v>0.109</v>
       </c>
-      <c r="E4">
-        <v>-0.0242</v>
-      </c>
       <c r="G4">
         <v>0</v>
       </c>
@@ -865,28 +856,28 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.22</v>
+        <v>2.07</v>
       </c>
       <c r="L4">
-        <v>0.1310418904403867</v>
+        <v>0.1848214285714286</v>
       </c>
       <c r="M4">
-        <v>0.316</v>
+        <v>1.19</v>
       </c>
       <c r="N4">
-        <v>0.04352617079889808</v>
+        <v>0.1166666666666667</v>
       </c>
       <c r="O4">
-        <v>0.2590163934426229</v>
+        <v>0.5748792270531401</v>
       </c>
       <c r="P4">
-        <v>0.316</v>
+        <v>1.19</v>
       </c>
       <c r="Q4">
-        <v>0.04352617079889808</v>
+        <v>0.1166666666666667</v>
       </c>
       <c r="R4">
-        <v>0.2590163934426229</v>
+        <v>0.5748792270531401</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -895,55 +886,55 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>4.52</v>
+        <v>4.68</v>
       </c>
       <c r="V4">
-        <v>0.6225895316804407</v>
+        <v>0.4588235294117647</v>
       </c>
       <c r="W4">
-        <v>0.09172932330827067</v>
+        <v>0.1478571428571429</v>
       </c>
       <c r="X4">
-        <v>0.07845250472739836</v>
+        <v>0.0741953889064869</v>
       </c>
       <c r="Y4">
-        <v>0.01327681858087232</v>
+        <v>0.07366175395065595</v>
       </c>
       <c r="Z4">
-        <v>1.34927536231884</v>
+        <v>0.8296296296296296</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.07145154595073211</v>
+        <v>0.06783998285818513</v>
       </c>
       <c r="AC4">
-        <v>-0.07145154595073211</v>
+        <v>-0.06783998285818513</v>
       </c>
       <c r="AD4">
-        <v>4.02</v>
+        <v>5.06</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>4.02</v>
+        <v>5.06</v>
       </c>
       <c r="AG4">
-        <v>-0.5</v>
+        <v>0.3799999999999999</v>
       </c>
       <c r="AH4">
-        <v>0.3563829787234042</v>
+        <v>0.3315858453473133</v>
       </c>
       <c r="AI4">
-        <v>0.2230854605993341</v>
+        <v>0.2627206645898235</v>
       </c>
       <c r="AJ4">
-        <v>-0.07396449704142012</v>
+        <v>0.03591682419659735</v>
       </c>
       <c r="AK4">
-        <v>-0.03703703703703703</v>
+        <v>0.02606310013717421</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -969,10 +960,10 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.07049999999999999</v>
+        <v>0.0245</v>
       </c>
       <c r="E5">
-        <v>0.382</v>
+        <v>-0.0659</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -987,10 +978,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>50.6</v>
+        <v>51.3</v>
       </c>
       <c r="L5">
-        <v>0.1981205951448708</v>
+        <v>0.202446724546172</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -1014,55 +1005,55 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1011.5</v>
+        <v>608</v>
       </c>
       <c r="V5">
-        <v>2.095938665561542</v>
+        <v>1.481481481481482</v>
       </c>
       <c r="W5">
-        <v>0.06394540629344118</v>
+        <v>0.07887453874538745</v>
       </c>
       <c r="X5">
-        <v>0.089091793330903</v>
+        <v>0.1029928658269311</v>
       </c>
       <c r="Y5">
-        <v>-0.02514638703746182</v>
+        <v>-0.02411832708154366</v>
       </c>
       <c r="Z5">
-        <v>0.4773831775700935</v>
+        <v>3.252888318356864</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.07466625621422887</v>
+        <v>0.07543770791390347</v>
       </c>
       <c r="AC5">
-        <v>-0.07466625621422887</v>
+        <v>-0.07543770791390347</v>
       </c>
       <c r="AD5">
-        <v>439</v>
+        <v>554.1</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>439</v>
+        <v>554.1</v>
       </c>
       <c r="AG5">
-        <v>-572.5</v>
+        <v>-53.89999999999998</v>
       </c>
       <c r="AH5">
-        <v>0.4763454861111111</v>
+        <v>0.5744945567651634</v>
       </c>
       <c r="AI5">
-        <v>0.396424056348203</v>
+        <v>0.4468908782966368</v>
       </c>
       <c r="AJ5">
-        <v>6.368186874304785</v>
+        <v>-0.1511921458625525</v>
       </c>
       <c r="AK5">
-        <v>-5.969760166840461</v>
+        <v>-0.08529830669409713</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1087,6 +1078,12 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
+      <c r="D6">
+        <v>0.111</v>
+      </c>
+      <c r="E6">
+        <v>0.195</v>
+      </c>
       <c r="G6">
         <v>0</v>
       </c>
@@ -1100,28 +1097,28 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.2</v>
+        <v>9.81</v>
       </c>
       <c r="L6">
-        <v>0.1104602510460251</v>
+        <v>0.08861788617886179</v>
       </c>
       <c r="M6">
-        <v>3.2</v>
+        <v>7.06</v>
       </c>
       <c r="N6">
-        <v>0.04060913705583757</v>
+        <v>0.1011461318051576</v>
       </c>
       <c r="O6">
-        <v>0.2424242424242425</v>
+        <v>0.7196738022426095</v>
       </c>
       <c r="P6">
-        <v>3.2</v>
+        <v>7.06</v>
       </c>
       <c r="Q6">
-        <v>0.04060913705583757</v>
+        <v>0.1011461318051576</v>
       </c>
       <c r="R6">
-        <v>0.2424242424242425</v>
+        <v>0.7196738022426095</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1130,55 +1127,55 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>172.6</v>
+        <v>199.3</v>
       </c>
       <c r="V6">
-        <v>2.190355329949238</v>
+        <v>2.855300859598854</v>
       </c>
       <c r="W6">
-        <v>0.09217877094972067</v>
+        <v>0.06614969656102494</v>
       </c>
       <c r="X6">
-        <v>0.1096964705111015</v>
+        <v>0.1344693629578884</v>
       </c>
       <c r="Y6">
-        <v>-0.01751769956138081</v>
+        <v>-0.06831966639686342</v>
       </c>
       <c r="Z6">
-        <v>1.027515047291488</v>
+        <v>1.088495575221239</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.07838814854808757</v>
+        <v>0.07718643248607202</v>
       </c>
       <c r="AC6">
-        <v>-0.07838814854808757</v>
+        <v>-0.07718643248607202</v>
       </c>
       <c r="AD6">
-        <v>126</v>
+        <v>159.4</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>126</v>
+        <v>159.4</v>
       </c>
       <c r="AG6">
-        <v>-46.59999999999999</v>
+        <v>-39.90000000000001</v>
       </c>
       <c r="AH6">
-        <v>0.615234375</v>
+        <v>0.6954624781849913</v>
       </c>
       <c r="AI6">
-        <v>0.4593510754648195</v>
+        <v>0.5214262348707883</v>
       </c>
       <c r="AJ6">
-        <v>-1.447204968944099</v>
+        <v>-1.334448160535118</v>
       </c>
       <c r="AK6">
-        <v>-0.4582104228121926</v>
+        <v>-0.3750000000000001</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1195,7 +1192,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sterling Bank plc (NGSE:STERLNBANK)</t>
+          <t>Sterling Bank Plc (NGSE:STERLNBANK)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1204,10 +1201,10 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.0643</v>
+        <v>0.05429999999999999</v>
       </c>
       <c r="E7">
-        <v>-0.035</v>
+        <v>0.0183</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1222,82 +1219,85 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>23.7</v>
+        <v>27.2</v>
       </c>
       <c r="L7">
-        <v>0.1061827956989247</v>
+        <v>0.1294005708848716</v>
       </c>
       <c r="M7">
-        <v>-0</v>
+        <v>2.26</v>
       </c>
       <c r="N7">
-        <v>-0</v>
+        <v>0.01468486029889539</v>
       </c>
       <c r="O7">
-        <v>-0</v>
+        <v>0.08308823529411764</v>
       </c>
       <c r="P7">
-        <v>-0</v>
+        <v>2.26</v>
       </c>
       <c r="Q7">
-        <v>-0</v>
+        <v>0.01468486029889539</v>
       </c>
       <c r="R7">
-        <v>-0</v>
+        <v>0.08308823529411764</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
       <c r="U7">
-        <v>254.9</v>
+        <v>204.2</v>
       </c>
       <c r="V7">
-        <v>1.611251580278129</v>
+        <v>1.326835607537362</v>
       </c>
       <c r="W7">
-        <v>0.08102564102564103</v>
+        <v>0.08991735537190082</v>
       </c>
       <c r="X7">
-        <v>0.1645356723870111</v>
+        <v>0.1384882606093146</v>
       </c>
       <c r="Y7">
-        <v>-0.08351003136137011</v>
+        <v>-0.04857090523741378</v>
       </c>
       <c r="Z7">
-        <v>0.2847301951779563</v>
+        <v>0.3557887610020311</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.08059473862812783</v>
+        <v>0.07748886401027022</v>
       </c>
       <c r="AC7">
-        <v>-0.08059473862812783</v>
+        <v>-0.07748886401027022</v>
       </c>
       <c r="AD7">
-        <v>543.2</v>
+        <v>369.8</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>543.2</v>
+        <v>369.8</v>
       </c>
       <c r="AG7">
-        <v>288.3000000000001</v>
+        <v>165.6</v>
       </c>
       <c r="AH7">
-        <v>0.7744510978043911</v>
+        <v>0.7061294634332633</v>
       </c>
       <c r="AI7">
-        <v>0.6423081470970794</v>
+        <v>0.526555603018653</v>
       </c>
       <c r="AJ7">
-        <v>0.6456886898096306</v>
+        <v>0.5183098591549297</v>
       </c>
       <c r="AK7">
-        <v>0.4879823967501693</v>
+        <v>0.3324633607709296</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -1323,10 +1323,10 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.0411</v>
+        <v>0.0335</v>
       </c>
       <c r="E8">
-        <v>-0.0382</v>
+        <v>0.0269</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1341,28 +1341,28 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>39.6</v>
+        <v>53.2</v>
       </c>
       <c r="L8">
-        <v>0.1405251951738822</v>
+        <v>0.1978430643361845</v>
       </c>
       <c r="M8">
-        <v>7.66</v>
+        <v>7.24</v>
       </c>
       <c r="N8">
-        <v>0.07569169960474308</v>
+        <v>0.04189814814814815</v>
       </c>
       <c r="O8">
-        <v>0.1934343434343434</v>
+        <v>0.1360902255639098</v>
       </c>
       <c r="P8">
-        <v>7.66</v>
+        <v>7.24</v>
       </c>
       <c r="Q8">
-        <v>0.07569169960474308</v>
+        <v>0.04189814814814815</v>
       </c>
       <c r="R8">
-        <v>0.1934343434343434</v>
+        <v>0.1360902255639098</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1371,55 +1371,55 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>412.3</v>
+        <v>524.4</v>
       </c>
       <c r="V8">
-        <v>4.074110671936759</v>
+        <v>3.034722222222222</v>
       </c>
       <c r="W8">
-        <v>0.08045509955302722</v>
+        <v>0.1026234567901235</v>
       </c>
       <c r="X8">
-        <v>0.2820072678409384</v>
+        <v>0.2734942045691023</v>
       </c>
       <c r="Y8">
-        <v>-0.2015521682879112</v>
+        <v>-0.1708707477789789</v>
       </c>
       <c r="Z8">
-        <v>0.4732952636882769</v>
+        <v>0.3279268292682926</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.08315293304725649</v>
+        <v>0.08199287966691049</v>
       </c>
       <c r="AC8">
-        <v>-0.08315293304725649</v>
+        <v>-0.08199287966691049</v>
       </c>
       <c r="AD8">
-        <v>745.2</v>
+        <v>1107.1</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>745.2</v>
+        <v>1107.1</v>
       </c>
       <c r="AG8">
-        <v>332.9</v>
+        <v>582.6999999999999</v>
       </c>
       <c r="AH8">
-        <v>0.8804347826086956</v>
+        <v>0.864989452300961</v>
       </c>
       <c r="AI8">
-        <v>0.5893704523884846</v>
+        <v>0.6635698873171901</v>
       </c>
       <c r="AJ8">
-        <v>0.7668739921677034</v>
+        <v>0.7712772998014559</v>
       </c>
       <c r="AK8">
-        <v>0.3906818448538903</v>
+        <v>0.5093531468531468</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FBN Holdings Plc (NGSE:FBNH)</t>
+          <t>Unity Bank Plc (NGSE:UNITYBNK)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.038</v>
+        <v>-0.0993</v>
       </c>
       <c r="E9">
-        <v>-0.00542</v>
+        <v>-0.172</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1457,103 +1457,94 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-0.0005901875167216824</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>-0.0005315443126617208</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>179.4</v>
+        <v>9.08</v>
       </c>
       <c r="L9">
-        <v>0.1786318829035149</v>
+        <v>0.1369532428355958</v>
       </c>
       <c r="M9">
-        <v>25.8</v>
+        <v>-0</v>
       </c>
       <c r="N9">
-        <v>0.04231589306216171</v>
+        <v>-0</v>
       </c>
       <c r="O9">
-        <v>0.1438127090301003</v>
+        <v>-0</v>
       </c>
       <c r="P9">
-        <v>25.8</v>
+        <v>-0</v>
       </c>
       <c r="Q9">
-        <v>0.04231589306216171</v>
+        <v>-0</v>
       </c>
       <c r="R9">
-        <v>0.1438127090301003</v>
+        <v>-0</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
       <c r="U9">
-        <v>3966.4</v>
+        <v>24.1</v>
       </c>
       <c r="V9">
-        <v>6.505494505494505</v>
+        <v>1.229591836734694</v>
       </c>
       <c r="W9">
-        <v>0.09551698434671493</v>
+        <v>-0.01355223880597015</v>
       </c>
       <c r="X9">
-        <v>0.08543920430153763</v>
+        <v>1.55482409041779</v>
       </c>
       <c r="Y9">
-        <v>0.0100777800451773</v>
+        <v>-1.56837632922376</v>
       </c>
       <c r="Z9">
-        <v>-1.067851729085191</v>
+        <v>-0.9954954954954947</v>
       </c>
       <c r="AA9">
-        <v>0.0005676105133612178</v>
+        <v>-0</v>
       </c>
       <c r="AB9">
-        <v>0.08378487232685433</v>
+        <v>0.085196329862232</v>
       </c>
       <c r="AC9">
-        <v>-0.08321726181349312</v>
+        <v>-0.085196329862232</v>
       </c>
       <c r="AD9">
-        <v>467.6</v>
+        <v>870.4</v>
       </c>
       <c r="AE9">
-        <v>12.51362661521793</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>480.1136266152179</v>
+        <v>870.4</v>
       </c>
       <c r="AG9">
-        <v>-3486.286373384782</v>
+        <v>846.3</v>
       </c>
       <c r="AH9">
-        <v>0.4405465438217835</v>
+        <v>0.9779775280898876</v>
       </c>
       <c r="AI9">
-        <v>0.2232034333370137</v>
+        <v>6.078212290502796</v>
       </c>
       <c r="AJ9">
-        <v>1.211952613570434</v>
+        <v>0.9773645917542441</v>
       </c>
       <c r="AK9">
-        <v>1.920410125633263</v>
+        <v>7.105793450881617</v>
       </c>
       <c r="AL9">
         <v>0</v>
       </c>
       <c r="AM9">
         <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>244.8167539267016</v>
-      </c>
-      <c r="AP9">
-        <v>-1825.280823761666</v>
       </c>
     </row>
     <row r="10">
@@ -1564,7 +1555,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Zenith Bank Plc (NGSE:ZENITHBANK)</t>
+          <t>FBN Holdings Plc (NGSE:FBNH)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1573,13 +1564,10 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.119</v>
+        <v>0.0453</v>
       </c>
       <c r="E10">
-        <v>0.157</v>
-      </c>
-      <c r="F10">
-        <v>0.053</v>
+        <v>0.0215</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1594,28 +1582,28 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>552.4</v>
+        <v>228.2</v>
       </c>
       <c r="L10">
-        <v>0.4278853601859024</v>
+        <v>0.2176027462572709</v>
       </c>
       <c r="M10">
-        <v>242.8</v>
+        <v>35.6</v>
       </c>
       <c r="N10">
-        <v>0.1505363010726021</v>
+        <v>0.05292106436747435</v>
       </c>
       <c r="O10">
-        <v>0.439536567704562</v>
+        <v>0.1560035056967572</v>
       </c>
       <c r="P10">
-        <v>242.8</v>
+        <v>35.6</v>
       </c>
       <c r="Q10">
-        <v>0.1505363010726021</v>
+        <v>0.05292106436747435</v>
       </c>
       <c r="R10">
-        <v>0.439536567704562</v>
+        <v>0.1560035056967572</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1624,55 +1612,55 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>2139.9</v>
+        <v>3172.9</v>
       </c>
       <c r="V10">
-        <v>1.326740653481307</v>
+        <v>4.716664189088747</v>
       </c>
       <c r="W10">
-        <v>0.2582635934358782</v>
+        <v>0.1399399031090942</v>
       </c>
       <c r="X10">
-        <v>0.1080247997608151</v>
+        <v>0.0925399604091991</v>
       </c>
       <c r="Y10">
-        <v>0.1502387936750632</v>
+        <v>0.04739994269989514</v>
       </c>
       <c r="Z10">
-        <v>0.3955754381664419</v>
+        <v>-0.5662221262350845</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB10">
-        <v>0.08806635768879031</v>
+        <v>0.08723395116856586</v>
       </c>
       <c r="AC10">
-        <v>-0.08806635768879031</v>
+        <v>-0.08723395116856586</v>
       </c>
       <c r="AD10">
-        <v>2488.8</v>
+        <v>699.7</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>2488.8</v>
+        <v>699.7</v>
       </c>
       <c r="AG10">
-        <v>348.9000000000001</v>
+        <v>-2473.2</v>
       </c>
       <c r="AH10">
-        <v>0.6067728015213204</v>
+        <v>0.5098367822792189</v>
       </c>
       <c r="AI10">
-        <v>0.5082191501092483</v>
+        <v>0.2732882865289224</v>
       </c>
       <c r="AJ10">
-        <v>0.177846875318585</v>
+        <v>1.37361843932241</v>
       </c>
       <c r="AK10">
-        <v>0.1265414188306978</v>
+        <v>4.037218413320274</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -1689,7 +1677,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Unity Bank Plc (NGSE:UNITYBNK)</t>
+          <t>Zenith Bank Plc (NGSE:ZENITHBANK)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1698,7 +1686,13 @@
         </is>
       </c>
       <c r="D11">
-        <v>-0.0223</v>
+        <v>0.094</v>
+      </c>
+      <c r="E11">
+        <v>0.143</v>
+      </c>
+      <c r="F11">
+        <v>0.066</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1707,100 +1701,97 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.003523026084073034</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.003185737894288873</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>5.94</v>
+        <v>567.6</v>
       </c>
       <c r="L11">
-        <v>0.1017123287671233</v>
+        <v>0.4383350065642134</v>
       </c>
       <c r="M11">
-        <v>-0</v>
+        <v>229.7</v>
       </c>
       <c r="N11">
-        <v>-0</v>
+        <v>0.1125539004312034</v>
       </c>
       <c r="O11">
-        <v>-0</v>
+        <v>0.4046863988724453</v>
       </c>
       <c r="P11">
-        <v>-0</v>
+        <v>229.7</v>
       </c>
       <c r="Q11">
-        <v>-0</v>
+        <v>0.1125539004312034</v>
       </c>
       <c r="R11">
-        <v>-0</v>
+        <v>0.4046863988724453</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
       <c r="U11">
-        <v>145.4</v>
+        <v>2059.4</v>
       </c>
       <c r="V11">
-        <v>7.024154589371981</v>
+        <v>1.009114072912583</v>
       </c>
       <c r="W11">
-        <v>-0.008898876404494382</v>
+        <v>0.235890615908902</v>
       </c>
       <c r="X11">
-        <v>1.145189463811922</v>
+        <v>0.1020679933573139</v>
       </c>
       <c r="Y11">
-        <v>-1.154088340216416</v>
+        <v>0.1338226225515882</v>
       </c>
       <c r="Z11">
-        <v>-0.2502102327036705</v>
+        <v>0.4700010888896955</v>
       </c>
       <c r="AA11">
-        <v>-0.0007971042198629201</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.08797938729601087</v>
+        <v>0.09071544329778447</v>
       </c>
       <c r="AC11">
-        <v>-0.0887764915158738</v>
+        <v>-0.09071544329778447</v>
       </c>
       <c r="AD11">
-        <v>748.8</v>
+        <v>2699.4</v>
       </c>
       <c r="AE11">
-        <v>1.396276383450674</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>750.1962763834506</v>
+        <v>2699.4</v>
       </c>
       <c r="AG11">
-        <v>604.7962763834506</v>
+        <v>640</v>
       </c>
       <c r="AH11">
-        <v>0.9731481385574838</v>
+        <v>0.5694696426311127</v>
       </c>
       <c r="AI11">
-        <v>9.354502605538205</v>
+        <v>0.4996945632254123</v>
       </c>
       <c r="AJ11">
-        <v>0.9669062778124194</v>
+        <v>0.2387347060578932</v>
       </c>
       <c r="AK11">
-        <v>-9.275486779560961</v>
+        <v>0.1914619918030335</v>
       </c>
       <c r="AL11">
         <v>0</v>
       </c>
       <c r="AM11">
         <v>0</v>
-      </c>
-      <c r="AN11">
-        <v>1543.917525773196</v>
-      </c>
-      <c r="AP11">
-        <v>1247.002631718455</v>
       </c>
     </row>
     <row r="12">
@@ -1811,7 +1802,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Access Bank Plc (NGSE:ACCESS)</t>
+          <t>United Bank for Africa Plc (NGSE:UBA)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1820,10 +1811,10 @@
         </is>
       </c>
       <c r="D12">
-        <v>0.218</v>
+        <v>0.106</v>
       </c>
       <c r="E12">
-        <v>0.229</v>
+        <v>0.0546</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1838,85 +1829,85 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>336.4</v>
+        <v>210.9</v>
       </c>
       <c r="L12">
-        <v>0.3161357015318109</v>
+        <v>0.2299389446140427</v>
       </c>
       <c r="M12">
-        <v>26.17</v>
+        <v>86.7</v>
       </c>
       <c r="N12">
-        <v>0.02665512324302302</v>
+        <v>0.1118132576734589</v>
       </c>
       <c r="O12">
-        <v>0.07779429250891796</v>
+        <v>0.4110953058321479</v>
       </c>
       <c r="P12">
-        <v>24.5</v>
+        <v>86.7</v>
       </c>
       <c r="Q12">
-        <v>0.02495416581788552</v>
+        <v>0.1118132576734589</v>
       </c>
       <c r="R12">
-        <v>0.07282996432818074</v>
+        <v>0.4110953058321479</v>
       </c>
       <c r="S12">
-        <v>1.670000000000002</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>0.06381352693924347</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>1530.6</v>
+        <v>1186.3</v>
       </c>
       <c r="V12">
-        <v>1.558973314320635</v>
+        <v>1.529920041269022</v>
       </c>
       <c r="W12">
-        <v>0.2628946545795561</v>
+        <v>0.1423076923076923</v>
       </c>
       <c r="X12">
-        <v>0.1282958490611321</v>
+        <v>0.125739557382119</v>
       </c>
       <c r="Y12">
-        <v>0.1345988055184241</v>
+        <v>0.0165681349255733</v>
       </c>
       <c r="Z12">
-        <v>0.5455188606699409</v>
+        <v>0.4749624566309357</v>
       </c>
       <c r="AA12">
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>0.09163624271291518</v>
+        <v>0.09654932043436557</v>
       </c>
       <c r="AC12">
-        <v>-0.09163624271291518</v>
+        <v>-0.09654932043436557</v>
       </c>
       <c r="AD12">
-        <v>2180.8</v>
+        <v>1570</v>
       </c>
       <c r="AE12">
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>2180.8</v>
+        <v>1570</v>
       </c>
       <c r="AG12">
-        <v>650.2000000000003</v>
+        <v>383.7</v>
       </c>
       <c r="AH12">
-        <v>0.6895592234237652</v>
+        <v>0.66939541229641</v>
       </c>
       <c r="AI12">
-        <v>0.5621922610914903</v>
+        <v>0.4783231270755263</v>
       </c>
       <c r="AJ12">
-        <v>0.3984068627450982</v>
+        <v>0.3310326977827626</v>
       </c>
       <c r="AK12">
-        <v>0.2768575686608475</v>
+        <v>0.1830629770992367</v>
       </c>
       <c r="AL12">
         <v>0</v>
@@ -1933,7 +1924,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>United Bank for Africa Plc (NGSE:UBA)</t>
+          <t>Access Bank Plc (NGSE:ACCESS)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1942,13 +1933,10 @@
         </is>
       </c>
       <c r="D13">
-        <v>0.143</v>
+        <v>0.163</v>
       </c>
       <c r="E13">
-        <v>0.178</v>
-      </c>
-      <c r="F13">
-        <v>0.03</v>
+        <v>0.148</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1963,85 +1951,85 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>264.5</v>
+        <v>287.3</v>
       </c>
       <c r="L13">
-        <v>0.2855754696609804</v>
+        <v>0.2528159098908835</v>
       </c>
       <c r="M13">
-        <v>80.3</v>
+        <v>90.94999999999999</v>
       </c>
       <c r="N13">
-        <v>0.1120725750174459</v>
+        <v>0.1168122270742358</v>
       </c>
       <c r="O13">
-        <v>0.3035916824196597</v>
+        <v>0.3165680473372781</v>
       </c>
       <c r="P13">
-        <v>80.3</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="Q13">
-        <v>0.1120725750174459</v>
+        <v>0.1073722065245312</v>
       </c>
       <c r="R13">
-        <v>0.3035916824196597</v>
+        <v>0.290985033066481</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>7.349999999999994</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>0.0808136338647608</v>
       </c>
       <c r="U13">
-        <v>1592.7</v>
+        <v>1615.2</v>
       </c>
       <c r="V13">
-        <v>2.222889043963713</v>
+        <v>2.074492679167737</v>
       </c>
       <c r="W13">
-        <v>0.1964206148819249</v>
+        <v>0.1714302762694671</v>
       </c>
       <c r="X13">
-        <v>0.1470810926136735</v>
+        <v>0.1631611398055599</v>
       </c>
       <c r="Y13">
-        <v>0.04933952226825133</v>
+        <v>0.008269136463907201</v>
       </c>
       <c r="Z13">
-        <v>0.481843720736656</v>
+        <v>0.5177220956719817</v>
       </c>
       <c r="AA13">
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0.09382161773664169</v>
+        <v>0.1017303388259441</v>
       </c>
       <c r="AC13">
-        <v>-0.09382161773664169</v>
+        <v>-0.1017303388259441</v>
       </c>
       <c r="AD13">
-        <v>2041.8</v>
+        <v>2440.6</v>
       </c>
       <c r="AE13">
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>2041.8</v>
+        <v>2440.6</v>
       </c>
       <c r="AG13">
-        <v>449.0999999999999</v>
+        <v>825.3999999999999</v>
       </c>
       <c r="AH13">
-        <v>0.740238552731755</v>
+        <v>0.7581386679920478</v>
       </c>
       <c r="AI13">
-        <v>0.5709412225267043</v>
+        <v>0.5788899430740038</v>
       </c>
       <c r="AJ13">
-        <v>0.3852951269732326</v>
+        <v>0.5145885286783042</v>
       </c>
       <c r="AK13">
-        <v>0.2264179480715906</v>
+        <v>0.3173638880344509</v>
       </c>
       <c r="AL13">
         <v>0</v>
@@ -2067,10 +2055,10 @@
         </is>
       </c>
       <c r="D14">
-        <v>0.09609999999999999</v>
+        <v>0.0924</v>
       </c>
       <c r="E14">
-        <v>0.274</v>
+        <v>0.163</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2085,28 +2073,28 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>73.3</v>
+        <v>77.8</v>
       </c>
       <c r="L14">
-        <v>0.2468844728864938</v>
+        <v>0.2553331145388907</v>
       </c>
       <c r="M14">
-        <v>8.800000000000001</v>
+        <v>15.1</v>
       </c>
       <c r="N14">
-        <v>0.05365853658536586</v>
+        <v>0.07893361212754835</v>
       </c>
       <c r="O14">
-        <v>0.1200545702592088</v>
+        <v>0.1940874035989717</v>
       </c>
       <c r="P14">
-        <v>8.800000000000001</v>
+        <v>15.1</v>
       </c>
       <c r="Q14">
-        <v>0.05365853658536586</v>
+        <v>0.07893361212754835</v>
       </c>
       <c r="R14">
-        <v>0.1200545702592088</v>
+        <v>0.1940874035989717</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -2115,55 +2103,55 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>683.5</v>
+        <v>600</v>
       </c>
       <c r="V14">
-        <v>4.167682926829269</v>
+        <v>3.136434918975431</v>
       </c>
       <c r="W14">
-        <v>0.1383018867924528</v>
+        <v>0.1270411495754409</v>
       </c>
       <c r="X14">
-        <v>0.210116598676783</v>
+        <v>0.179456288814346</v>
       </c>
       <c r="Y14">
-        <v>-0.07181471188433014</v>
+        <v>-0.05241513923890512</v>
       </c>
       <c r="Z14">
-        <v>0.6262391900442944</v>
+        <v>0.4105915644791807</v>
       </c>
       <c r="AA14">
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>0.103238405647558</v>
+        <v>0.1032080856038046</v>
       </c>
       <c r="AC14">
-        <v>-0.103238405647558</v>
+        <v>-0.1032080856038046</v>
       </c>
       <c r="AD14">
-        <v>813.2</v>
+        <v>692.1</v>
       </c>
       <c r="AE14">
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>813.2</v>
+        <v>692.1</v>
       </c>
       <c r="AG14">
-        <v>129.7</v>
+        <v>92.10000000000002</v>
       </c>
       <c r="AH14">
-        <v>0.8321735571019239</v>
+        <v>0.7834503056373103</v>
       </c>
       <c r="AI14">
-        <v>0.5704264870931538</v>
+        <v>0.5025778810543897</v>
       </c>
       <c r="AJ14">
-        <v>0.4416070820565203</v>
+        <v>0.3249823570924489</v>
       </c>
       <c r="AK14">
-        <v>0.1747742891793559</v>
+        <v>0.1185175653069103</v>
       </c>
       <c r="AL14">
         <v>0</v>
